--- a/PetShopPetroU.xlsx
+++ b/PetShopPetroU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT_6_Petrov_Petr_ISP411-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" tabRatio="658"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" tabRatio="658" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">OrderProduct!$M$1:$M$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pickPoint!$A$1:$G$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Product!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -567,96 +568,9 @@
     <t xml:space="preserve"> г. Нефтеюганск</t>
   </si>
   <si>
-    <t xml:space="preserve"> ул. Подгорная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Партизанская</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Шоссейная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Мичурина</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Чехова</t>
-  </si>
-  <si>
     <t xml:space="preserve"> г.Нефтеюганск</t>
   </si>
   <si>
-    <t xml:space="preserve"> ул. Фрунзе</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Коммунистическая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Зеленая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Северная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Светлая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Школьная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Вишневая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Маяковского</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Набережная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Комсомольская</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Новая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Дзержинского</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Садовая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Спортивная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Гоголя</t>
-  </si>
-  <si>
-    <t>  ул. Степная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Молодежная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Полевая</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Цветочная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Победы</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Некрасова</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. 8 Марта</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Октябрьская</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ул. Солнечная</t>
-  </si>
-  <si>
     <t>ул. Клубная</t>
   </si>
   <si>
@@ -691,6 +605,93 @@
   </si>
   <si>
     <t>idArt</t>
+  </si>
+  <si>
+    <t>ул. Степная</t>
+  </si>
+  <si>
+    <t>ул. Шоссейная</t>
+  </si>
+  <si>
+    <t>ул. Школьная</t>
+  </si>
+  <si>
+    <t>ул. Чехова</t>
+  </si>
+  <si>
+    <t>ул. Цветочная</t>
+  </si>
+  <si>
+    <t>ул. Фрунзе</t>
+  </si>
+  <si>
+    <t>ул. Спортивная</t>
+  </si>
+  <si>
+    <t>ул. Солнечная</t>
+  </si>
+  <si>
+    <t>ул. 8 Марта</t>
+  </si>
+  <si>
+    <t>ул. Вишневая</t>
+  </si>
+  <si>
+    <t>ул. Гоголя</t>
+  </si>
+  <si>
+    <t>ул. Дзержинского</t>
+  </si>
+  <si>
+    <t>ул. Зеленая</t>
+  </si>
+  <si>
+    <t>ул. Коммунистическая</t>
+  </si>
+  <si>
+    <t>ул. Комсомольская</t>
+  </si>
+  <si>
+    <t>ул. Маяковского</t>
+  </si>
+  <si>
+    <t>ул. Мичурина</t>
+  </si>
+  <si>
+    <t>ул. Молодежная</t>
+  </si>
+  <si>
+    <t>ул. Набережная</t>
+  </si>
+  <si>
+    <t>ул. Некрасова</t>
+  </si>
+  <si>
+    <t>ул. Новая</t>
+  </si>
+  <si>
+    <t>ул. Октябрьская</t>
+  </si>
+  <si>
+    <t>ул. Партизанская</t>
+  </si>
+  <si>
+    <t>ул. Победы</t>
+  </si>
+  <si>
+    <t>ул. Подгорная</t>
+  </si>
+  <si>
+    <t>ул. Полевая</t>
+  </si>
+  <si>
+    <t>ул. Садовая</t>
+  </si>
+  <si>
+    <t>ул. Светлая</t>
+  </si>
+  <si>
+    <t>ул. Северная</t>
   </si>
 </sst>
 </file>
@@ -951,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1091,6 +1092,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1409,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -1463,7 +1484,7 @@
         <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3843,13 +3864,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3857,10 +3879,10 @@
         <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>172</v>
@@ -3892,17 +3914,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="18">
         <f>LOOKUP(D3,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3910,17 +3932,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="18">
         <f>LOOKUP(D4,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3928,17 +3950,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="18">
         <f>LOOKUP(D5,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3946,17 +3968,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="18">
         <f>LOOKUP(D6,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3964,17 +3986,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="18">
         <f>LOOKUP(D7,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3982,32 +4004,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="18">
         <f>LOOKUP(D8,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
-        <v>8</v>
+      <c r="B9" s="18">
+        <v>1</v>
       </c>
       <c r="C9" s="18">
         <f>LOOKUP(D9,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>20</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -4018,17 +4040,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="18">
         <f>LOOKUP(D10,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4036,14 +4058,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" s="18">
         <f>LOOKUP(D11,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -4053,15 +4075,15 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
-        <v>1</v>
+      <c r="B12" s="20">
+        <v>8</v>
       </c>
       <c r="C12" s="18">
         <f>LOOKUP(D12,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>13</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -4072,17 +4094,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" s="18">
         <f>LOOKUP(D13,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4090,17 +4112,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14" s="18">
         <f>LOOKUP(D14,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4108,14 +4130,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" s="18">
         <f>LOOKUP(D15,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -4130,13 +4152,13 @@
       </c>
       <c r="C16" s="18">
         <f>LOOKUP(D16,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4144,17 +4166,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" s="18">
         <f>LOOKUP(D17,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4162,17 +4184,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="18">
         <f>LOOKUP(D18,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4198,14 +4220,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="18">
         <f>LOOKUP(D20,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -4216,17 +4238,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="18">
         <f>LOOKUP(D21,Product!$B$2:$B$31,Product!$A$2:$A$31)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E21" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4234,6 +4256,9 @@
       <c r="E22" s="53"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E22">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4242,8 +4267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4262,22 +4287,22 @@
         <v>151</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4299,7 +4324,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="G2" s="6">
         <v>8</v>
@@ -4324,7 +4349,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="G3" s="6">
         <v>49</v>
@@ -4349,7 +4374,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G4" s="6">
         <v>40</v>
@@ -4374,7 +4399,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G5" s="6">
         <v>26</v>
@@ -4399,7 +4424,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -4424,7 +4449,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G7" s="6">
         <v>43</v>
@@ -4449,7 +4474,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G8" s="6">
         <v>43</v>
@@ -4474,7 +4499,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="G9" s="6">
         <v>3</v>
@@ -4499,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G10" s="6">
         <v>32</v>
@@ -4524,7 +4549,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="G11" s="6">
         <v>13</v>
@@ -4549,7 +4574,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="G12" s="6">
         <v>46</v>
@@ -4574,7 +4599,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G13" s="6">
         <v>50</v>
@@ -4599,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G14" s="6">
         <v>32</v>
@@ -4624,7 +4649,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G15" s="6">
         <v>44</v>
@@ -4649,7 +4674,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
@@ -4671,10 +4696,10 @@
       </c>
       <c r="E17" s="6">
         <f>LOOKUP(F17,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="G17" s="6">
         <v>44</v>
@@ -4699,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G18" s="6">
         <v>30</v>
@@ -4724,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G19" s="6">
         <v>26</v>
@@ -4749,7 +4774,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G20" s="6">
         <v>19</v>
@@ -4774,7 +4799,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="G21" s="6">
         <v>28</v>
@@ -4799,7 +4824,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" s="6">
         <v>4</v>
@@ -4849,7 +4874,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G24" s="6">
         <v>41</v>
@@ -4871,10 +4896,10 @@
       </c>
       <c r="E25" s="6">
         <f>LOOKUP(F25,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G25" s="6">
         <v>30</v>
@@ -4899,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6">
         <v>47</v>
@@ -4924,7 +4949,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
@@ -4949,7 +4974,7 @@
         <v>18</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G28" s="6">
         <v>35</v>
@@ -4974,7 +4999,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G29" s="6">
         <v>8</v>
@@ -4999,7 +5024,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G30" s="6">
         <v>46</v>
@@ -5024,7 +5049,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G31" s="6">
         <v>12</v>
@@ -5049,7 +5074,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G32" s="6">
         <v>20</v>
@@ -5074,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>158</v>
@@ -5099,7 +5124,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G34" s="6">
         <v>17</v>
@@ -5124,7 +5149,7 @@
         <v>28</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="G35" s="6">
         <v>24</v>
@@ -5149,7 +5174,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G36" s="6">
         <v>19</v>
@@ -5174,7 +5199,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G37" s="6">
         <v>25</v>
@@ -5193,264 +5218,266 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="61"/>
+    <col min="2" max="2" width="21" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="60" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="60">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="60">
+        <v>4</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="60">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="60">
+        <v>6</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="60">
+        <v>7</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="60">
+        <v>8</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="60">
+        <v>11</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="60">
+        <v>12</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="60">
+        <v>13</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="60">
+        <v>14</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="60">
+        <v>15</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="60">
+        <v>16</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="60">
+        <v>17</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="60">
+        <v>18</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="60">
+        <v>19</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="60">
+        <v>20</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="60">
+        <v>21</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="60">
+        <v>22</v>
+      </c>
+      <c r="B23" s="60" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="60">
+        <v>23</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="60">
+        <v>24</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="60">
+        <v>25</v>
+      </c>
+      <c r="B26" s="60" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="60">
+        <v>26</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="60">
+        <v>27</v>
+      </c>
+      <c r="B28" s="60" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="60">
+        <v>30</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="60">
+        <v>29</v>
+      </c>
+      <c r="B30" s="60" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="60">
+        <v>28</v>
+      </c>
+      <c r="B31" s="60" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B1:B37">
+  <sortState ref="A2:B31">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5462,7 +5489,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5475,7 +5502,7 @@
         <v>151</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5496,7 +5523,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5699,7 +5726,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5952,7 +5979,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6151,7 +6178,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6376,7 +6403,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6632,7 +6659,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6685,7 +6712,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6883,7 +6910,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A2" sqref="A2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -6894,11 +6921,11 @@
     <col min="4" max="4" width="12.625" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="33" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="33" customWidth="1"/>
     <col min="9" max="9" width="40.625" style="24" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="33" customWidth="1"/>
-    <col min="11" max="11" width="40.625" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="67" hidden="1" customWidth="1"/>
     <col min="12" max="13" width="16.375" style="33" customWidth="1"/>
     <col min="14" max="14" width="29.625" style="17" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="18.625" style="17" bestFit="1" customWidth="1"/>
@@ -6929,17 +6956,17 @@
         <v>165</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="K1" s="44"/>
+        <v>185</v>
+      </c>
+      <c r="K1" s="62"/>
       <c r="L1" s="45" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>159</v>
@@ -6995,8 +7022,8 @@
         <f>LOOKUP(K2,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>8</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>188</v>
+      <c r="K2" s="63" t="s">
+        <v>203</v>
       </c>
       <c r="L2" s="31">
         <v>47</v>
@@ -7056,8 +7083,8 @@
         <f>LOOKUP(K3,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>4</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>192</v>
+      <c r="K3" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="L3" s="31">
         <v>28</v>
@@ -7117,7 +7144,7 @@
         <f>LOOKUP(K4,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>23</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="63" t="s">
         <v>194</v>
       </c>
       <c r="L4" s="31">
@@ -7173,14 +7200,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J5" s="31">
         <f>LOOKUP(K5,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
-        <v>29</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>196</v>
+        <v>23</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>188</v>
       </c>
       <c r="L5" s="31">
         <v>30</v>
@@ -7240,8 +7267,8 @@
         <f>LOOKUP(K6,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>8</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>188</v>
+      <c r="K6" s="63" t="s">
+        <v>203</v>
       </c>
       <c r="L6" s="31">
         <v>47</v>
@@ -7301,8 +7328,8 @@
         <f>LOOKUP(K7,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>25</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>199</v>
+      <c r="K7" s="63" t="s">
+        <v>192</v>
       </c>
       <c r="L7" s="31">
         <v>8</v>
@@ -7363,8 +7390,8 @@
         <f>LOOKUP(K8,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>22</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>204</v>
+      <c r="K8" s="63" t="s">
+        <v>195</v>
       </c>
       <c r="L8" s="31">
         <v>25</v>
@@ -7424,8 +7451,8 @@
         <f>LOOKUP(K9,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>202</v>
+      <c r="K9" s="63" t="s">
+        <v>196</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>158</v>
@@ -7485,8 +7512,8 @@
         <f>LOOKUP(K10,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>28</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>177</v>
+      <c r="K10" s="63" t="s">
+        <v>189</v>
       </c>
       <c r="L10" s="31">
         <v>24</v>
@@ -7547,8 +7574,8 @@
         <f>LOOKUP(K11,Street!$B$2:$B$31,Street!$A$2:$A$31)</f>
         <v>22</v>
       </c>
-      <c r="K11" s="49" t="s">
-        <v>204</v>
+      <c r="K11" s="64" t="s">
+        <v>195</v>
       </c>
       <c r="L11" s="50">
         <v>25</v>
@@ -7586,7 +7613,7 @@
       <c r="H12" s="41"/>
       <c r="I12" s="40"/>
       <c r="J12" s="41"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="41"/>
       <c r="M12" s="41"/>
       <c r="N12" s="42"/>
@@ -7609,7 +7636,7 @@
       <c r="H13" s="31"/>
       <c r="I13" s="19"/>
       <c r="J13" s="31"/>
-      <c r="K13" s="19"/>
+      <c r="K13" s="63"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="21"/>
@@ -7632,7 +7659,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="19"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="19"/>
+      <c r="K14" s="63"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="21"/>
@@ -7655,7 +7682,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="23"/>
       <c r="J15" s="32"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="21"/>
@@ -7678,7 +7705,7 @@
       <c r="H16" s="32"/>
       <c r="I16" s="23"/>
       <c r="J16" s="32"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
       <c r="N16" s="21"/>
@@ -7701,7 +7728,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="23"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="21"/>
@@ -7724,7 +7751,7 @@
       <c r="H18" s="32"/>
       <c r="I18" s="23"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" s="21"/>
@@ -7747,7 +7774,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="23"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="21"/>
@@ -7770,7 +7797,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="23"/>
       <c r="J20" s="32"/>
-      <c r="K20" s="23"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="21"/>
@@ -7793,7 +7820,7 @@
       <c r="H21" s="32"/>
       <c r="I21" s="23"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="23"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="21"/>
@@ -7816,7 +7843,7 @@
       <c r="H22" s="32"/>
       <c r="I22" s="23"/>
       <c r="J22" s="32"/>
-      <c r="K22" s="23"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="21"/>
@@ -7839,7 +7866,7 @@
       <c r="H23" s="32"/>
       <c r="I23" s="23"/>
       <c r="J23" s="32"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="66"/>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="21"/>
@@ -7862,7 +7889,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="23"/>
       <c r="J24" s="32"/>
-      <c r="K24" s="23"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
       <c r="N24" s="21"/>
@@ -7885,7 +7912,7 @@
       <c r="H25" s="32"/>
       <c r="I25" s="23"/>
       <c r="J25" s="32"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="21"/>
@@ -7908,7 +7935,7 @@
       <c r="H26" s="32"/>
       <c r="I26" s="23"/>
       <c r="J26" s="32"/>
-      <c r="K26" s="23"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
       <c r="N26" s="21"/>
@@ -7931,7 +7958,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="23"/>
       <c r="J27" s="32"/>
-      <c r="K27" s="23"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="21"/>
@@ -7954,7 +7981,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="23"/>
       <c r="J28" s="32"/>
-      <c r="K28" s="23"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
       <c r="N28" s="21"/>
@@ -7977,7 +8004,7 @@
       <c r="H29" s="32"/>
       <c r="I29" s="23"/>
       <c r="J29" s="32"/>
-      <c r="K29" s="23"/>
+      <c r="K29" s="66"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="21"/>
@@ -8000,7 +8027,7 @@
       <c r="H30" s="32"/>
       <c r="I30" s="23"/>
       <c r="J30" s="32"/>
-      <c r="K30" s="23"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="32"/>
       <c r="M30" s="32"/>
       <c r="N30" s="21"/>
@@ -8023,7 +8050,7 @@
       <c r="H31" s="32"/>
       <c r="I31" s="23"/>
       <c r="J31" s="32"/>
-      <c r="K31" s="23"/>
+      <c r="K31" s="66"/>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="21"/>
@@ -8046,7 +8073,7 @@
       <c r="H32" s="32"/>
       <c r="I32" s="23"/>
       <c r="J32" s="32"/>
-      <c r="K32" s="23"/>
+      <c r="K32" s="66"/>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
       <c r="N32" s="21"/>
@@ -8069,7 +8096,7 @@
       <c r="H33" s="32"/>
       <c r="I33" s="23"/>
       <c r="J33" s="32"/>
-      <c r="K33" s="23"/>
+      <c r="K33" s="66"/>
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="21"/>
@@ -8092,7 +8119,7 @@
       <c r="H34" s="32"/>
       <c r="I34" s="23"/>
       <c r="J34" s="32"/>
-      <c r="K34" s="23"/>
+      <c r="K34" s="66"/>
       <c r="L34" s="32"/>
       <c r="M34" s="32"/>
       <c r="N34" s="21"/>
@@ -8115,7 +8142,7 @@
       <c r="H35" s="32"/>
       <c r="I35" s="23"/>
       <c r="J35" s="32"/>
-      <c r="K35" s="23"/>
+      <c r="K35" s="66"/>
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="21"/>
@@ -8138,7 +8165,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="23"/>
       <c r="J36" s="32"/>
-      <c r="K36" s="23"/>
+      <c r="K36" s="66"/>
       <c r="L36" s="32"/>
       <c r="M36" s="32"/>
       <c r="N36" s="21"/>
@@ -8161,7 +8188,7 @@
       <c r="H37" s="32"/>
       <c r="I37" s="23"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="23"/>
+      <c r="K37" s="66"/>
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="21"/>
@@ -8184,7 +8211,7 @@
       <c r="H38" s="32"/>
       <c r="I38" s="23"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="23"/>
+      <c r="K38" s="66"/>
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
       <c r="N38" s="21"/>
@@ -8207,7 +8234,7 @@
       <c r="H39" s="32"/>
       <c r="I39" s="23"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="23"/>
+      <c r="K39" s="66"/>
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="21"/>
@@ -8230,7 +8257,7 @@
       <c r="H40" s="32"/>
       <c r="I40" s="23"/>
       <c r="J40" s="32"/>
-      <c r="K40" s="23"/>
+      <c r="K40" s="66"/>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
       <c r="N40" s="21"/>
@@ -8253,7 +8280,7 @@
       <c r="H41" s="32"/>
       <c r="I41" s="23"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="23"/>
+      <c r="K41" s="66"/>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="21"/>
@@ -8276,7 +8303,7 @@
       <c r="H42" s="32"/>
       <c r="I42" s="23"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="23"/>
+      <c r="K42" s="66"/>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
       <c r="N42" s="21"/>
@@ -8299,7 +8326,7 @@
       <c r="H43" s="32"/>
       <c r="I43" s="23"/>
       <c r="J43" s="32"/>
-      <c r="K43" s="23"/>
+      <c r="K43" s="66"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
       <c r="N43" s="21"/>
@@ -8322,7 +8349,7 @@
       <c r="H44" s="32"/>
       <c r="I44" s="23"/>
       <c r="J44" s="32"/>
-      <c r="K44" s="23"/>
+      <c r="K44" s="66"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
       <c r="N44" s="21"/>
@@ -8345,7 +8372,7 @@
       <c r="H45" s="32"/>
       <c r="I45" s="23"/>
       <c r="J45" s="32"/>
-      <c r="K45" s="23"/>
+      <c r="K45" s="66"/>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="21"/>
@@ -8368,7 +8395,7 @@
       <c r="H46" s="32"/>
       <c r="I46" s="23"/>
       <c r="J46" s="32"/>
-      <c r="K46" s="23"/>
+      <c r="K46" s="66"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="21"/>
@@ -8391,7 +8418,7 @@
       <c r="H47" s="32"/>
       <c r="I47" s="23"/>
       <c r="J47" s="32"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="66"/>
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="21"/>
@@ -8414,7 +8441,7 @@
       <c r="H48" s="32"/>
       <c r="I48" s="23"/>
       <c r="J48" s="32"/>
-      <c r="K48" s="23"/>
+      <c r="K48" s="66"/>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
       <c r="N48" s="21"/>
@@ -8437,7 +8464,7 @@
       <c r="H49" s="32"/>
       <c r="I49" s="23"/>
       <c r="J49" s="32"/>
-      <c r="K49" s="23"/>
+      <c r="K49" s="66"/>
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="21"/>
@@ -8460,7 +8487,7 @@
       <c r="H50" s="32"/>
       <c r="I50" s="23"/>
       <c r="J50" s="32"/>
-      <c r="K50" s="23"/>
+      <c r="K50" s="66"/>
       <c r="L50" s="32"/>
       <c r="M50" s="32"/>
       <c r="N50" s="21"/>
@@ -8483,7 +8510,7 @@
       <c r="H51" s="32"/>
       <c r="I51" s="23"/>
       <c r="J51" s="32"/>
-      <c r="K51" s="23"/>
+      <c r="K51" s="66"/>
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
       <c r="N51" s="21"/>
@@ -8506,7 +8533,7 @@
       <c r="H52" s="32"/>
       <c r="I52" s="23"/>
       <c r="J52" s="32"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="66"/>
       <c r="L52" s="32"/>
       <c r="M52" s="32"/>
       <c r="N52" s="21"/>
@@ -8529,7 +8556,7 @@
       <c r="H53" s="32"/>
       <c r="I53" s="23"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="23"/>
+      <c r="K53" s="66"/>
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
       <c r="N53" s="21"/>
@@ -8552,7 +8579,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="23"/>
       <c r="J54" s="32"/>
-      <c r="K54" s="23"/>
+      <c r="K54" s="66"/>
       <c r="L54" s="32"/>
       <c r="M54" s="32"/>
       <c r="N54" s="21"/>
